--- a/Final_Data_Dictonary_Chris_Baenziger.xlsx
+++ b/Final_Data_Dictonary_Chris_Baenziger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive - Kirkwood Community College\MySQL_Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Kirkwood\Fall 2023\DotNet\BugReportApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840318BA-13BE-4F7E-88E5-2487E2272D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B256827-F80D-46B5-99D8-03BE764E7C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89E3D889-C540-4770-AC3A-5D0A7A1B2523}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="144">
   <si>
     <t>Table</t>
   </si>
@@ -158,9 +158,6 @@
     <t>COMMENT 'Last person to work on the bug.'</t>
   </si>
   <si>
-    <t>PeopleTable</t>
-  </si>
-  <si>
     <t>COMMENT 'ID number for the person.'</t>
   </si>
   <si>
@@ -465,6 +462,12 @@
   </si>
   <si>
     <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -514,17 +517,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A48D06C-318B-4A50-96DE-818B85799B17}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -901,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -928,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -948,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1043,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1089,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1127,15 +1126,15 @@
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -1157,15 +1156,15 @@
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -1177,15 +1176,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -1197,15 +1196,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -1217,15 +1216,15 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1237,18 +1236,18 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1257,18 +1256,18 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1277,18 +1276,18 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>35</v>
@@ -1297,15 +1296,15 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -1317,18 +1316,18 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1337,15 +1336,15 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -1357,15 +1356,15 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1377,15 +1376,15 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
@@ -1397,18 +1396,18 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>35</v>
@@ -1417,15 +1416,15 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1442,20 +1441,20 @@
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
@@ -1463,505 +1462,565 @@
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" t="s">
         <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="I41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>126</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
       <c r="I45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I49" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
       <c r="I50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>128</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>101</v>
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
       <c r="I55" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
       <c r="I57" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" t="s">
         <v>86</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I61" t="s">
-        <v>114</v>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1"/>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" t="s">
-        <v>119</v>
+        <v>92</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -1969,21 +2028,19 @@
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
+        <v>92</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>16</v>
@@ -1992,116 +2049,68 @@
         <v>11</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="I70" t="s">
-        <v>31</v>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -2112,416 +2121,511 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" t="s">
-        <v>34</v>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>136</v>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>115</v>
       </c>
       <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="I87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="I90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B97" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>137</v>
+      <c r="A101" t="s">
+        <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>137</v>
+      <c r="A102" t="s">
+        <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
@@ -2531,100 +2635,315 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>137</v>
+      <c r="A103" t="s">
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D103" t="s">
-        <v>35</v>
+      <c r="D103" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" t="s">
         <v>137</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="C104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="s">
         <v>137</v>
       </c>
-      <c r="B105" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
         <v>139</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B109" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="D126" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2635,20 +2954,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b92b8525-e11a-4474-a6a8-f9f06ff90615" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b92b8525-e11a-4474-a6a8-f9f06ff90615" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2829,19 +3148,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7382FDB0-7B39-4E22-8E2D-AC4727749051}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94F7826D-F9E8-4D92-8B6D-A6BCD46FD32D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b92b8525-e11a-4474-a6a8-f9f06ff90615"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7382FDB0-7B39-4E22-8E2D-AC4727749051}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
